--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660427.0188589358</v>
+        <v>660741.8944307605</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238722</v>
+        <v>2688149.654238719</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461772</v>
+        <v>8966943.138461765</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7755518.520997877</v>
+        <v>7738482.551279686</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>354.0919310728503</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>134.1571990734227</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.7480363891209</v>
+        <v>295.1362108586948</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>179.4080122938799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>292.9599730128444</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>162.1147045466223</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1193,7 +1195,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>336.6327140501647</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>161.4085122120593</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -1582,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>147.9510425214052</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>336.6327140501647</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5507645688959</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -1673,7 +1675,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>100.3434053864689</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1859,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>162.1147045466223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>111.4899794070004</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>194.9632162960285</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2093,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>320.5127299397348</v>
       </c>
       <c r="H20" t="n">
-        <v>294.1722966376664</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>129.6022067968811</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.98476809241006</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2327,13 +2329,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>232.0494800347017</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>83.65649467259193</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.58826509340416</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.5631274482085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>19.23990995237944</v>
+        <v>345.7603062456656</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>190.2665907172034</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>154.853023011353</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
@@ -2852,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>298.9232396122261</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>59.70065638348617</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>209.6055627261014</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>299.4895911336225</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3044,10 +3046,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>202.037310516073</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -3083,7 +3085,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>29.24258337363389</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.6158245190442</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>302.1480073738686</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>290.9878818257732</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>36.65301522788418</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.7406737689586</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>46.44438837213755</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>361.2905471843362</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>9.126850821345453</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.1045920014103</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>361.996739518899</v>
+        <v>16.31738760860825</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3746,13 +3748,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -3791,19 +3793,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3958,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3989,10 +3991,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>396.3074925255262</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>26.80574342287035</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
         <v>133.5813703291298</v>
@@ -4138,25 +4140,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>100.3434053864692</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.181742510704</v>
+        <v>1378.336361148354</v>
       </c>
       <c r="C2" t="n">
-        <v>1193.006241013635</v>
+        <v>985.1608596512847</v>
       </c>
       <c r="D2" t="n">
-        <v>807.5651122303025</v>
+        <v>599.7197308679524</v>
       </c>
       <c r="E2" t="n">
-        <v>404.981587346847</v>
+        <v>599.7197308679524</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>182.8252923979302</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>182.8252923979302</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4328,19 +4330,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>1590.266290800943</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
         <v>2017.461012945658</v>
@@ -4355,25 +4357,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.634347577648</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.634347577648</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.634347577648</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X2" t="n">
-        <v>1586.181742510704</v>
+        <v>1378.336361148354</v>
       </c>
       <c r="Y2" t="n">
-        <v>1586.181742510704</v>
+        <v>1378.336361148354</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4418,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1545.785408515688</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1179.210445219441</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C5" t="n">
-        <v>786.0349437223717</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="D5" t="n">
-        <v>400.5938149390395</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4571,19 +4573,19 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1920.147110703377</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
@@ -4607,10 +4609,10 @@
         <v>2365.64850507718</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010237</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.705190930838</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>623.643757208308</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4750,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>462.613506756823</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>228.5331845398061</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.036739400527</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.036739400527</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>756.3948902729793</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>343.2321347609824</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4808,16 +4810,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4834,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2201.89627826241</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>1946.143548697009</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V8" t="n">
-        <v>1604.036739400527</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.036739400527</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.036739400527</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.036739400527</v>
+        <v>1173.289328743002</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746808</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L9" t="n">
-        <v>678.1322124729941</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479596</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486198</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4999,13 +5001,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>431.3492683572568</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.2372071739002</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154361</v>
+        <v>210.3518713258459</v>
       </c>
       <c r="C11" t="n">
         <v>47.31297010154361</v>
@@ -5039,25 +5041,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
@@ -5069,22 +5071,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V11" t="n">
-        <v>1544.288363774714</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W11" t="n">
-        <v>1173.289328743002</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X11" t="n">
-        <v>783.8367236760583</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y11" t="n">
-        <v>387.3460145966595</v>
+        <v>610.8466170372428</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5123,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L12" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1229.492043226187</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N12" t="n">
         <v>1443.506853769802</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C13" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D13" t="n">
-        <v>77.69124027544166</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E13" t="n">
-        <v>77.69124027544166</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F13" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G13" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H13" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I13" t="n">
         <v>77.69124027544166</v>
@@ -5230,19 +5232,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U13" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V13" t="n">
-        <v>397.3418557058213</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W13" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X13" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.8963582094524</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C14" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D14" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E14" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F14" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5276,25 +5278,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5306,22 +5308,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.869955007588</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>1887.117225442187</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V14" t="n">
-        <v>1545.010416145706</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W14" t="n">
-        <v>1174.011381113993</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X14" t="n">
-        <v>784.5587760470498</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="Y14" t="n">
-        <v>784.5587760470498</v>
+        <v>387.3460145966595</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5360,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5413,7 +5415,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>847.4030175052487</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
         <v>847.4030175052487</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1604.036739400527</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C17" t="n">
-        <v>1604.036739400527</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D17" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
         <v>47.31297010154361</v>
@@ -5513,22 +5515,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5546,19 +5548,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V17" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W17" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y17" t="n">
-        <v>1604.036739400527</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>478.9606185943132</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>478.9606185943132</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>478.9606185943132</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>323.4018064535157</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>323.4018064535157</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>323.4018064535157</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J19" t="n">
         <v>47.31297010154361</v>
@@ -5698,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V19" t="n">
-        <v>244.2455118147037</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W19" t="n">
-        <v>244.2455118147037</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>478.9606185943132</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>478.9606185943132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1977.344709330363</v>
+        <v>1969.157795997781</v>
       </c>
       <c r="C20" t="n">
-        <v>1977.344709330363</v>
+        <v>1575.982294500712</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.903580547031</v>
+        <v>1190.54116571738</v>
       </c>
       <c r="E20" t="n">
-        <v>1189.320055663575</v>
+        <v>787.9576408339242</v>
       </c>
       <c r="F20" t="n">
-        <v>772.4256171935532</v>
+        <v>371.063202363902</v>
       </c>
       <c r="G20" t="n">
-        <v>359.2628616815563</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2715.942227706244</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2715.942227706244</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2373.835418409762</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W20" t="n">
-        <v>2373.835418409762</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X20" t="n">
-        <v>2373.835418409762</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.344709330363</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2849.040597927132</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="C22" t="n">
-        <v>2849.040597927132</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="D22" t="n">
-        <v>2849.040597927132</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="E22" t="n">
-        <v>2849.040597927132</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="F22" t="n">
-        <v>2691.714663140105</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G22" t="n">
-        <v>2523.46060923955</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H22" t="n">
-        <v>2367.982058201044</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I22" t="n">
-        <v>2234.887632838122</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>3084.759649758897</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>3084.759649758897</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>2849.040597927132</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>2849.040597927132</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>2849.040597927132</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>2849.040597927132</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X22" t="n">
-        <v>2849.040597927132</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="Y22" t="n">
-        <v>2849.040597927132</v>
+        <v>665.4295905742738</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1243.319282867973</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C23" t="n">
-        <v>850.1437813709033</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D23" t="n">
-        <v>464.702652587571</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E23" t="n">
-        <v>62.11912770411553</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F23" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
         <v>62.11912770411553</v>
@@ -6011,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U23" t="n">
-        <v>2645.697186866948</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V23" t="n">
-        <v>2645.697186866948</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W23" t="n">
-        <v>2274.698151835235</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X23" t="n">
-        <v>2040.304737658769</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="Y23" t="n">
-        <v>1643.81402857937</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6077,7 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>2635.309574756376</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>2635.309574756376</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>2479.676461658891</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>2479.676461658891</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2322.350526871864</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2322.350526871864</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2322.350526871864</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T25" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U25" t="n">
-        <v>475.3112746701182</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V25" t="n">
-        <v>475.3112746701182</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="W25" t="n">
-        <v>191.9808726012958</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="X25" t="n">
-        <v>191.9808726012958</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>2820.517593447677</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>957.136303034308</v>
+        <v>2082.713911529263</v>
       </c>
       <c r="C26" t="n">
-        <v>957.136303034308</v>
+        <v>1689.538410032194</v>
       </c>
       <c r="D26" t="n">
-        <v>957.136303034308</v>
+        <v>1689.538410032194</v>
       </c>
       <c r="E26" t="n">
-        <v>957.136303034308</v>
+        <v>1286.954885148738</v>
       </c>
       <c r="F26" t="n">
         <v>937.702050557157</v>
@@ -6251,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2460.189498140842</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V26" t="n">
-        <v>2118.082688844361</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W26" t="n">
-        <v>1747.083653812648</v>
+        <v>2479.204620608662</v>
       </c>
       <c r="X26" t="n">
-        <v>1357.631048745705</v>
+        <v>2479.204620608662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1357.631048745705</v>
+        <v>2082.713911529263</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6409,22 +6411,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>849.2563164731562</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T28" t="n">
-        <v>613.5372646413903</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="U28" t="n">
-        <v>328.0984728832913</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="V28" t="n">
-        <v>62.11912770411553</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="W28" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X28" t="n">
-        <v>62.11912770411553</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y28" t="n">
         <v>62.11912770411553</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1381.656399775508</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="C29" t="n">
-        <v>988.4808982784384</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="D29" t="n">
-        <v>603.0397694951062</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E29" t="n">
-        <v>200.4562446116507</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F29" t="n">
-        <v>200.4562446116507</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G29" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
         <v>200.4562446116507</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W29" t="n">
-        <v>1778.147108854907</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X29" t="n">
-        <v>1778.147108854907</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="Y29" t="n">
-        <v>1381.656399775508</v>
+        <v>1913.597208871598</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C30" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D30" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E30" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F30" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G30" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H30" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1898.958585755135</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>2554.736556965694</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q30" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R30" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S30" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T30" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U30" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V30" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W30" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X30" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y30" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2588.545660919937</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.545660919937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2588.545660919937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2588.545660919937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2588.545660919937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2420.291607019382</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2264.813055980876</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="X31" t="n">
-        <v>2588.545660919937</v>
+        <v>444.047036270552</v>
       </c>
       <c r="Y31" t="n">
-        <v>2588.545660919937</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2059.694752429446</v>
+        <v>2277.454568280369</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.694752429446</v>
+        <v>1884.279066783299</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.180013910635</v>
+        <v>1498.837937999967</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>1096.254413116511</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>679.3599746464891</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>266.1972191344923</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V32" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W32" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X32" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y32" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6788,10 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
         <v>1974.833293963354</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.7687548437774</v>
+        <v>2530.34759369572</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7687548437774</v>
+        <v>2360.142475761709</v>
       </c>
       <c r="D34" t="n">
-        <v>247.1356417462922</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E34" t="n">
-        <v>217.5976787426216</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F34" t="n">
-        <v>217.5976787426216</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G34" t="n">
-        <v>217.5976787426216</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P34" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>839.6651608782449</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S34" t="n">
-        <v>636.8490770607943</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T34" t="n">
-        <v>636.8490770607943</v>
+        <v>2938.667673570378</v>
       </c>
       <c r="U34" t="n">
-        <v>636.8490770607943</v>
+        <v>2938.667673570378</v>
       </c>
       <c r="V34" t="n">
-        <v>636.8490770607943</v>
+        <v>2938.667673570378</v>
       </c>
       <c r="W34" t="n">
-        <v>636.8490770607943</v>
+        <v>2938.667673570378</v>
       </c>
       <c r="X34" t="n">
-        <v>402.7687548437774</v>
+        <v>2938.667673570378</v>
       </c>
       <c r="Y34" t="n">
-        <v>402.7687548437774</v>
+        <v>2715.555612387021</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1243.319282867973</v>
+        <v>996.2152709921756</v>
       </c>
       <c r="C35" t="n">
-        <v>850.1437813709033</v>
+        <v>603.0397694951062</v>
       </c>
       <c r="D35" t="n">
-        <v>464.702652587571</v>
+        <v>603.0397694951062</v>
       </c>
       <c r="E35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V35" t="n">
-        <v>2800.756377757424</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W35" t="n">
-        <v>2429.757342725712</v>
+        <v>1786.162621770516</v>
       </c>
       <c r="X35" t="n">
-        <v>2040.304737658769</v>
+        <v>1396.710016703573</v>
       </c>
       <c r="Y35" t="n">
-        <v>1643.81402857937</v>
+        <v>1396.710016703573</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.186936128453</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1898.958585755135</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
-        <v>2183.814733898398</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2700.335016489379</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S37" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T37" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U37" t="n">
-        <v>475.3112746701182</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V37" t="n">
-        <v>209.3319294909424</v>
+        <v>802.6419131733114</v>
       </c>
       <c r="W37" t="n">
-        <v>209.3319294909424</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X37" t="n">
-        <v>209.3319294909424</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y37" t="n">
         <v>62.11912770411553</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2051.197549394652</v>
+        <v>1344.012821542897</v>
       </c>
       <c r="C38" t="n">
-        <v>2004.284025786432</v>
+        <v>950.8373200458277</v>
       </c>
       <c r="D38" t="n">
-        <v>1618.8428970031</v>
+        <v>565.3961912624954</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.259372119644</v>
+        <v>565.3961912624954</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,22 +7204,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V38" t="n">
-        <v>2422.196584426364</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W38" t="n">
-        <v>2051.197549394652</v>
+        <v>2530.450881400636</v>
       </c>
       <c r="X38" t="n">
-        <v>2051.197549394652</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="Y38" t="n">
-        <v>2051.197549394652</v>
+        <v>1744.507567254294</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C39" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D39" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G39" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K39" t="n">
-        <v>84.60386270860994</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L39" t="n">
-        <v>568.1699486069232</v>
+        <v>1416.785395652139</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>2044.55704527882</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q39" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R39" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S39" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T39" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U39" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V39" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W39" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X39" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y39" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C40" t="n">
-        <v>230.37318160467</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D40" t="n">
-        <v>230.37318160467</v>
+        <v>807.9330371481826</v>
       </c>
       <c r="E40" t="n">
-        <v>230.37318160467</v>
+        <v>652.3742250073851</v>
       </c>
       <c r="F40" t="n">
-        <v>230.37318160467</v>
+        <v>495.0482902203581</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>326.7942363198036</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>171.3156852812976</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7357,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X40" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y40" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2535.796644191037</v>
+        <v>1303.155925325562</v>
       </c>
       <c r="C41" t="n">
-        <v>2142.621142693967</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D41" t="n">
-        <v>1757.180013910635</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E41" t="n">
-        <v>1354.596489027179</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F41" t="n">
-        <v>937.702050557157</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G41" t="n">
         <v>524.5392950451601</v>
@@ -7439,22 +7441,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>2901.449916432349</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U41" t="n">
-        <v>2901.449916432349</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V41" t="n">
-        <v>2901.449916432349</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W41" t="n">
-        <v>2901.449916432349</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X41" t="n">
-        <v>2901.449916432349</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y41" t="n">
-        <v>2901.449916432349</v>
+        <v>1319.638135031227</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C42" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D42" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G42" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K42" t="n">
-        <v>84.60386270860994</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L42" t="n">
-        <v>568.1699486069232</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1528.036762687839</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q42" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R42" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S42" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T42" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U42" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V42" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W42" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X42" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y42" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
         <v>62.11912770411553</v>
@@ -7597,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W43" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1652.542660748986</v>
+        <v>1715.01185657461</v>
       </c>
       <c r="C44" t="n">
-        <v>1652.542660748986</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="D44" t="n">
-        <v>1267.101531965654</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="E44" t="n">
-        <v>864.5180070821984</v>
+        <v>919.2528301940845</v>
       </c>
       <c r="F44" t="n">
-        <v>447.6235686121762</v>
+        <v>502.3583917240622</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>89.19563621206538</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1212.952060406441</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1740.763344043903</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2180.802944936232</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V44" t="n">
-        <v>2023.541695780699</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W44" t="n">
-        <v>1652.542660748986</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X44" t="n">
-        <v>1652.542660748986</v>
+        <v>2511.997311365405</v>
       </c>
       <c r="Y44" t="n">
-        <v>1652.542660748986</v>
+        <v>2115.506602286006</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620834</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M45" t="n">
-        <v>1436.116207068686</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.506853769802</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360783</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2365.64850507718</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>2365.64850507718</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>2264.291529939333</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>2108.732717798535</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>1951.406783011508</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.152729110954</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>1627.674178072448</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>1494.579752709526</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>2365.64850507718</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>2365.64850507718</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V46" t="n">
-        <v>2365.64850507718</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W46" t="n">
-        <v>2365.64850507718</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>2365.64850507718</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>2365.64850507718</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7988,10 +7990,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>581.0736577722939</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8064,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>680.3186616794904</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8219,7 +8221,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>413.5901686882534</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>186.0888404416868</v>
+        <v>395.3134182086922</v>
       </c>
       <c r="N6" t="n">
         <v>676.7842391234617</v>
@@ -8310,10 +8312,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,7 +8458,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>457.1386964627902</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>400.3730943507992</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274113</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,10 +8549,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>476.2460796729725</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8699,16 +8701,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>393.9156246749224</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,16 +8771,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N12" t="n">
-        <v>301.5486891608486</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,7 +9008,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,13 +9017,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>92.83741255226282</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9170,16 +9172,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9243,16 +9245,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>99.85242174740807</v>
       </c>
       <c r="N18" t="n">
-        <v>179.0738312465423</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9416,10 +9418,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O21" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9725,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9893,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9957,7 +9959,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9969,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10203,7 +10205,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>239.756709922914</v>
+        <v>239.7567099229146</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10367,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10434,13 +10436,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10601,10 +10603,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271601</v>
+        <v>424.3297954396435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>288.3536975034281</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11139,13 +11141,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3087888732267</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>351.8313913012167</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11303,7 +11305,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>320.115627001847</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11312,7 +11314,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N45" t="n">
-        <v>92.83741255226374</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22553,16 +22555,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>58.63356301247165</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>186.6850208557515</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22595,16 +22597,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -22787,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>48.80965324549999</v>
+        <v>103.4214787759261</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22847,7 +22849,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -23002,13 +23004,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.47292827764321</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23027,7 +23029,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>27.88224691632985</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23072,7 +23074,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>59.15089186955521</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -23176,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23239,13 +23241,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.85708420411822</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>227.8352342700394</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23309,7 +23311,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>132.546055526729</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>59.85708420411822</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23507,10 +23509,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23546,7 +23548,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0.71483184728163</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>68.15966136820178</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>92.48239428282</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23786,10 +23788,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23798,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>230.4110974419826</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23896,7 +23898,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23905,13 +23907,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
-        <v>153.923765528121</v>
+        <v>42.43378612112052</v>
       </c>
       <c r="I19" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>36.77630269881823</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23969,7 +23971,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>88.51839801714209</v>
       </c>
       <c r="H20" t="n">
-        <v>26.66992329150787</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24017,16 +24019,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24136,7 +24138,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>26.15046864227571</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.6772113813387</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24187,7 +24189,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>153.508598981572</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>308.869307316013</v>
       </c>
     </row>
     <row r="24">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24382,10 +24384,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>45.17521601588872</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
@@ -24424,13 +24426,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.31781312331461</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>393.4855841329426</v>
+        <v>66.96518783965644</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24649,25 +24651,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>43.0952705962448</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>226.7336944841459</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>68.36580506916931</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24850,13 +24852,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>72.06282472580671</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24892,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>11.27537784542167</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>82.09712636187641</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>118.8049094131013</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>124.7606406457556</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25090,7 +25092,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>67.74603679440403</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -25138,10 +25140,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>36.53773382964818</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>76.30116285562218</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>226.6665364994998</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.14026680256447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>342.7993581099611</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>51.43494690098578</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,25 +25551,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>159.3762159333252</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>23.65888910788262</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25597,13 +25599,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.4930587353839</v>
+        <v>380.1724106456746</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25792,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>28.35556784267773</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25837,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>12.7236354313506</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>294.0364765063039</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
@@ -25922,16 +25924,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,25 +26028,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>53.73337658004117</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632405.5666395756</v>
+        <v>632405.5666395759</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632405.566639576</v>
+        <v>632405.5666395756</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632405.5666395761</v>
+        <v>632405.5666395759</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632405.5666395761</v>
+        <v>632405.5666395759</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632405.5666395762</v>
+        <v>632405.5666395759</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712446.9794782927</v>
+        <v>632405.5666395758</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712446.9794782931</v>
+        <v>712446.9794782926</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712446.9794782925</v>
+        <v>712446.9794782926</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712446.9794782926</v>
+        <v>712446.9794782931</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632405.5666395759</v>
+        <v>712446.9794782927</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="C2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="D2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="E2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="F2" t="n">
+        <v>158101.391659894</v>
+      </c>
+      <c r="G2" t="n">
         <v>158101.3916598939</v>
       </c>
-      <c r="G2" t="n">
-        <v>158101.391659894</v>
-      </c>
       <c r="H2" t="n">
-        <v>178111.7448695732</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="I2" t="n">
         <v>178111.7448695732</v>
       </c>
       <c r="J2" t="n">
-        <v>178111.7448695732</v>
+        <v>178111.7448695731</v>
       </c>
       <c r="K2" t="n">
         <v>178111.7448695732</v>
@@ -26347,13 +26349,13 @@
         <v>178111.7448695732</v>
       </c>
       <c r="N2" t="n">
+        <v>178111.7448695732</v>
+      </c>
+      <c r="O2" t="n">
         <v>178111.7448695733</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>178111.7448695732</v>
-      </c>
-      <c r="P2" t="n">
-        <v>158101.391659894</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>49215.85294791909</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="C4" t="n">
         <v>461.3207027394317</v>
@@ -26424,22 +26426,22 @@
         <v>461.3207027394316</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="H4" t="n">
+        <v>461.3207027394316</v>
+      </c>
+      <c r="I4" t="n">
         <v>548.8206074562066</v>
       </c>
-      <c r="I4" t="n">
-        <v>548.8206074562065</v>
-      </c>
       <c r="J4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="K4" t="n">
         <v>548.8206074562066</v>
@@ -26451,13 +26453,13 @@
         <v>548.8206074562066</v>
       </c>
       <c r="N4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="O4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3207027394316</v>
+        <v>548.8206074562066</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26522,10 +26524,10 @@
         <v>-110141.1923117636</v>
       </c>
       <c r="C6" t="n">
-        <v>88054.61367998135</v>
+        <v>88054.61367998141</v>
       </c>
       <c r="D6" t="n">
-        <v>88054.61367998135</v>
+        <v>88054.61367998147</v>
       </c>
       <c r="E6" t="n">
         <v>121682.2136799814</v>
@@ -26534,34 +26536,34 @@
         <v>121682.2136799814</v>
       </c>
       <c r="G6" t="n">
-        <v>121682.2136799814</v>
+        <v>121682.2136799813</v>
       </c>
       <c r="H6" t="n">
-        <v>80416.95499958508</v>
+        <v>121682.2136799813</v>
       </c>
       <c r="I6" t="n">
-        <v>130352.3872069893</v>
+        <v>81136.53425907015</v>
       </c>
       <c r="J6" t="n">
-        <v>-24387.04715861419</v>
+        <v>-24387.0471586143</v>
       </c>
       <c r="K6" t="n">
         <v>130352.3872069892</v>
       </c>
       <c r="L6" t="n">
+        <v>130352.3872069893</v>
+      </c>
+      <c r="M6" t="n">
+        <v>130352.3872069893</v>
+      </c>
+      <c r="N6" t="n">
         <v>130352.3872069892</v>
-      </c>
-      <c r="M6" t="n">
-        <v>130352.3872069892</v>
-      </c>
-      <c r="N6" t="n">
-        <v>130352.3872069893</v>
       </c>
       <c r="O6" t="n">
         <v>130352.3872069893</v>
       </c>
       <c r="P6" t="n">
-        <v>121682.2136799814</v>
+        <v>130352.3872069892</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>185.076970032149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34708,10 +34710,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>431.5098203481975</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34784,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>587.9315396301786</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34939,7 +34941,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>263.2887214473282</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>93.70171839237487</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="N6" t="n">
         <v>591.4121262692951</v>
@@ -35030,10 +35032,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>303.8905267322986</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>148.740562094078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35269,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>389.1627148536579</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35419,16 +35421,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>244.7971333371383</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N12" t="n">
-        <v>216.1765763066819</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,13 +35737,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>7.465299698096163</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35890,16 +35892,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
+        <v>7.465299698096163</v>
+      </c>
+      <c r="N18" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N18" t="n">
-        <v>93.70171839237568</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36136,10 +36138,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O21" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36613,7 +36615,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36689,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36923,7 +36925,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>147.0691510340251</v>
+        <v>147.0691510340258</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37087,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37321,10 +37323,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729934</v>
+        <v>338.9576825854768</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>198.2933506465099</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>22.71185353989334</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>259.4442692519048</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>170.3905754041197</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N45" t="n">
-        <v>7.465299698097082</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660741.8944307605</v>
+        <v>655464.16514489</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461765</v>
+        <v>8966943.138461767</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7738482.551279686</v>
+        <v>7738482.55127969</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>212.1423103961133</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>134.1571990734227</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>108.4701098559617</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>295.1362108586948</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>384.2367816766574</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>219.2609706213617</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>292.9599730128444</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>161.4085122120593</v>
+        <v>39.03885150049273</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.6327140501647</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>359.907990881792</v>
       </c>
     </row>
     <row r="15">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>16.3140739490321</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>73.77770933232539</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>111.4899794070004</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>266.1333084341188</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>320.5127299397348</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>129.6022067968811</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>35.95701122794162</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.65649467259193</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.58826509340416</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>345.7603062456656</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.2665907172034</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>154.853023011353</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>306.7136263402602</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.6055627261014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>202.037310516073</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>19.18749499968582</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>21.2710444415848</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>165.6158245190442</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>54.7004171927703</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>290.9878818257732</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>146.5079465715101</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>36.65301522788418</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3511,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>361.2905471843362</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>149.3975653751152</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>108.1045920014103</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.31738760860825</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>178.9839626579065</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>72.26894572564547</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>26.80574342287035</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>111.2910658129612</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>173.5983749883279</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1378.336361148354</v>
+        <v>261.5981321178197</v>
       </c>
       <c r="C2" t="n">
-        <v>985.1608596512847</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D2" t="n">
-        <v>599.7197308679524</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E2" t="n">
-        <v>599.7197308679524</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>182.8252923979302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>182.8252923979302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4330,52 +4330,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W2" t="n">
-        <v>1767.788966215297</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X2" t="n">
-        <v>1378.336361148354</v>
+        <v>1058.583586908615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.336361148354</v>
+        <v>662.0928778292166</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834975</v>
+        <v>194.5661265746817</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>678.132212472995</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N3" t="n">
-        <v>1725.662044805892</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4518,22 +4518,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>839.1942251118217</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.663050286385</v>
+        <v>828.606432888166</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.487548789315</v>
+        <v>435.4309313910965</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.487548789315</v>
+        <v>435.4309313910965</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>435.4309313910965</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4567,22 +4567,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>406.2953261290054</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>952.2962261735861</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N5" t="n">
-        <v>1480.107509811048</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O5" t="n">
-        <v>1920.147110703377</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>1225.097141967565</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.157795997781</v>
+        <v>828.606432888166</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M6" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486199</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.64850507718</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.289328743002</v>
+        <v>661.9641994989784</v>
       </c>
       <c r="C8" t="n">
-        <v>1173.289328743002</v>
+        <v>268.7886980019089</v>
       </c>
       <c r="D8" t="n">
-        <v>1173.289328743002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E8" t="n">
-        <v>1173.289328743002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F8" t="n">
-        <v>756.3948902729793</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G8" t="n">
-        <v>343.2321347609824</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4819,7 +4819,7 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4828,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774714</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1173.289328743002</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="X8" t="n">
-        <v>1173.289328743002</v>
+        <v>1458.949654289774</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.289328743002</v>
+        <v>1062.458945210375</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>643.9940382195842</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.492043226187</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1746.012325817167</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4992,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.3518713258459</v>
+        <v>1319.386872300849</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
         <v>47.31297010154361</v>
@@ -5041,25 +5041,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
@@ -5068,25 +5068,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.895775511779</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.788966215297</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W11" t="n">
-        <v>1396.789931183585</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X11" t="n">
-        <v>1007.337326116642</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y11" t="n">
-        <v>610.8466170372428</v>
+        <v>1719.881618012246</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L12" t="n">
-        <v>963.7331842818107</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="M12" t="n">
-        <v>1443.506853769802</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
         <v>47.31297010154361</v>
@@ -5229,22 +5229,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154361</v>
+        <v>1270.545665580632</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
         <v>47.31297010154361</v>
@@ -5284,19 +5284,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5308,22 +5308,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U14" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V14" t="n">
-        <v>1544.288363774714</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W14" t="n">
-        <v>1173.289328743002</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="X14" t="n">
-        <v>783.8367236760583</v>
+        <v>1634.089090713755</v>
       </c>
       <c r="Y14" t="n">
-        <v>387.3460145966595</v>
+        <v>1270.545665580632</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>305.4650404492652</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>789.0311263475785</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1374.529131354181</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>337.7333302514928</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>337.7333302514928</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>337.7333302514928</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>337.7333302514928</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>522.9413489427941</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>522.9413489427941</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>522.9413489427941</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>831.3600880379058</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>445.9189592545736</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>445.9189592545736</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>445.9189592545736</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>445.9189592545736</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>121.8359088210642</v>
       </c>
       <c r="I17" t="n">
         <v>47.31297010154361</v>
@@ -5521,16 +5521,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5539,28 +5539,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.64850507718</v>
+        <v>1224.535589534975</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631986</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
         <v>2365.648505077179</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>478.9606185943132</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>478.9606185943132</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>478.9606185943132</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>323.4018064535157</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>323.4018064535157</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>323.4018064535157</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
         <v>47.31297010154361</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>713.0409408113302</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>713.0409408113302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>478.9606185943132</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>478.9606185943132</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1969.157795997781</v>
+        <v>709.3099952694402</v>
       </c>
       <c r="C20" t="n">
-        <v>1575.982294500712</v>
+        <v>316.1344937723707</v>
       </c>
       <c r="D20" t="n">
-        <v>1190.54116571738</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E20" t="n">
-        <v>787.9576408339242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F20" t="n">
-        <v>371.063202363902</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
         <v>47.31297010154361</v>
@@ -5752,52 +5752,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1925.608904184852</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>2030.305891693271</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.64850507718</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.64850507718</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="X20" t="n">
-        <v>2365.64850507718</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="Y20" t="n">
-        <v>1969.157795997781</v>
+        <v>1109.804740980837</v>
       </c>
     </row>
     <row r="21">
@@ -5840,16 +5840,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C22" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D22" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E22" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F22" t="n">
-        <v>534.5182705774242</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G22" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H22" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I22" t="n">
         <v>77.69124027544166</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>912.4397792815389</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>627.0009875234398</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>361.021642344264</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X22" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.459527283501</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C23" t="n">
-        <v>2004.284025786432</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D23" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
         <v>62.11912770411553</v>
@@ -6019,22 +6019,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>2882.455782765193</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y23" t="n">
-        <v>2797.954272994898</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2635.309574756376</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2635.309574756376</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2479.676461658891</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2479.676461658891</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2322.350526871864</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2322.350526871864</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2322.350526871864</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>2820.517593447677</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>2820.517593447677</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2082.713911529263</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C26" t="n">
-        <v>1689.538410032194</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D26" t="n">
-        <v>1689.538410032194</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E26" t="n">
-        <v>1286.954885148738</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F26" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6259,19 +6259,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2850.203655640375</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2850.203655640375</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="W26" t="n">
-        <v>2479.204620608662</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="X26" t="n">
-        <v>2479.204620608662</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y26" t="n">
-        <v>2082.713911529263</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6411,22 +6411,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>568.5615909562946</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U28" t="n">
-        <v>568.5615909562946</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V28" t="n">
-        <v>568.5615909562946</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W28" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
         <v>62.11912770411553</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1913.597208871598</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="C29" t="n">
-        <v>1913.597208871598</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.180013910635</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6490,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T29" t="n">
-        <v>2882.455782765193</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U29" t="n">
-        <v>2626.703053199792</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V29" t="n">
-        <v>2284.59624390331</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W29" t="n">
-        <v>1913.597208871598</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="X29" t="n">
-        <v>1913.597208871598</v>
+        <v>2064.023674631721</v>
       </c>
       <c r="Y29" t="n">
-        <v>1913.597208871598</v>
+        <v>1667.532965552322</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C30" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D30" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E30" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F30" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G30" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H30" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>787.6208502301403</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>1271.186936128453</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1898.958585755135</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N30" t="n">
-        <v>2554.736556965694</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O30" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R30" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S30" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T30" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U30" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V30" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W30" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X30" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
         <v>62.11912770411553</v>
@@ -6651,22 +6651,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>232.3242456381263</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2277.454568280369</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C32" t="n">
-        <v>1884.279066783299</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D32" t="n">
-        <v>1498.837937999967</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E32" t="n">
-        <v>1096.254413116511</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F32" t="n">
-        <v>679.3599746464891</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G32" t="n">
-        <v>266.1972191344923</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
         <v>62.11912770411553</v>
@@ -6733,19 +6733,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V32" t="n">
-        <v>2677.949313991765</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W32" t="n">
-        <v>2677.949313991765</v>
+        <v>2060.708467049392</v>
       </c>
       <c r="X32" t="n">
-        <v>2677.949313991765</v>
+        <v>2060.708467049392</v>
       </c>
       <c r="Y32" t="n">
-        <v>2677.949313991765</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2530.34759369572</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="C34" t="n">
-        <v>2360.142475761709</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>239.1638433212613</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>83.60503118046381</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>83.60503118046381</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>83.60503118046381</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>2938.667673570378</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>2938.667673570378</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>2938.667673570378</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W34" t="n">
-        <v>2938.667673570378</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X34" t="n">
-        <v>2938.667673570378</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="Y34" t="n">
-        <v>2715.555612387021</v>
+        <v>394.7969564187466</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>996.2152709921756</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C35" t="n">
-        <v>603.0397694951062</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D35" t="n">
-        <v>603.0397694951062</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E35" t="n">
-        <v>200.4562446116507</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F35" t="n">
-        <v>200.4562446116507</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G35" t="n">
         <v>200.4562446116507</v>
@@ -6964,25 +6964,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V35" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W35" t="n">
-        <v>1786.162621770516</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X35" t="n">
-        <v>1396.710016703573</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y35" t="n">
-        <v>1396.710016703573</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1122.744905612751</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.11912770411553</v>
+        <v>389.6501804251534</v>
       </c>
       <c r="C37" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D37" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E37" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F37" t="n">
         <v>62.11912770411553</v>
@@ -7119,28 +7119,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>839.6651608782449</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T37" t="n">
-        <v>839.6651608782449</v>
+        <v>612.7622416085101</v>
       </c>
       <c r="U37" t="n">
-        <v>839.6651608782449</v>
+        <v>612.7622416085101</v>
       </c>
       <c r="V37" t="n">
-        <v>802.6419131733114</v>
+        <v>612.7622416085101</v>
       </c>
       <c r="W37" t="n">
-        <v>519.3115111044891</v>
+        <v>612.7622416085101</v>
       </c>
       <c r="X37" t="n">
-        <v>285.2311888874722</v>
+        <v>612.7622416085101</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.11912770411553</v>
+        <v>389.6501804251534</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1344.012821542897</v>
+        <v>1807.388670072005</v>
       </c>
       <c r="C38" t="n">
-        <v>950.8373200458277</v>
+        <v>1414.213168574936</v>
       </c>
       <c r="D38" t="n">
-        <v>565.3961912624954</v>
+        <v>1028.772039791603</v>
       </c>
       <c r="E38" t="n">
-        <v>565.3961912624954</v>
+        <v>626.1885149081479</v>
       </c>
       <c r="F38" t="n">
-        <v>200.4562446116507</v>
+        <v>626.1885149081479</v>
       </c>
       <c r="G38" t="n">
-        <v>200.4562446116507</v>
+        <v>213.025759396151</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T38" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U38" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V38" t="n">
-        <v>2901.449916432349</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W38" t="n">
-        <v>2530.450881400636</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="X38" t="n">
-        <v>2140.998276333693</v>
+        <v>2207.883415783402</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.507567254294</v>
+        <v>2207.883415783402</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>1220.474978512094</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>1416.785395652139</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>2044.55704527882</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>2700.335016489379</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>807.9330371481826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>652.3742250073851</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>495.0482902203581</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>326.7942363198036</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>171.3156852812976</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7362,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1303.155925325562</v>
+        <v>1937.971895383268</v>
       </c>
       <c r="C41" t="n">
-        <v>909.9804238284923</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D41" t="n">
-        <v>524.5392950451601</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E41" t="n">
-        <v>524.5392950451601</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F41" t="n">
-        <v>524.5392950451601</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G41" t="n">
         <v>524.5392950451601</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>1709.09074009817</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X41" t="n">
-        <v>1319.638135031227</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="Y41" t="n">
-        <v>1319.638135031227</v>
+        <v>2338.466641094665</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C42" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D42" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1528.036762687839</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>2183.814733898398</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R42" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S42" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T42" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U42" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V42" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W42" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X42" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y42" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H43" t="n">
         <v>62.11912770411553</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>727.847098413902</v>
+        <v>890.5672151692584</v>
       </c>
       <c r="U43" t="n">
-        <v>442.408306655803</v>
+        <v>890.5672151692584</v>
       </c>
       <c r="V43" t="n">
-        <v>176.4289614766272</v>
+        <v>890.5672151692584</v>
       </c>
       <c r="W43" t="n">
-        <v>62.11912770411553</v>
+        <v>607.2368131004359</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411553</v>
+        <v>373.1564908834191</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>373.1564908834191</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1715.01185657461</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C44" t="n">
-        <v>1321.83635507754</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
-        <v>1321.83635507754</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>919.2528301940845</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>502.3583917240622</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>89.19563621206538</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T44" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U44" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V44" t="n">
-        <v>2901.449916432349</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W44" t="n">
-        <v>2901.449916432349</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="X44" t="n">
-        <v>2511.997311365405</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y44" t="n">
-        <v>2115.506602286006</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.690231197904</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F46" t="n">
         <v>62.11912770411553</v>
@@ -7836,22 +7836,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>442.408306655803</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>176.4289614766272</v>
+        <v>502.7754645599649</v>
       </c>
       <c r="W46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="X46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>238.3374974274122</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,16 +8069,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>263.5850982253579</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>413.5901686882534</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>395.3134182086922</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
         <v>676.7842391234617</v>
@@ -8312,7 +8312,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>400.3730943507992</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8534,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>476.2460796729725</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8704,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084867</v>
       </c>
       <c r="M12" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8932,10 +8932,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>466.7144144634705</v>
+        <v>506.8283140129063</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8944,10 +8944,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,7 +9008,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>350.356602351234</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9020,10 +9020,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9169,10 +9169,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>457.1386964627902</v>
       </c>
       <c r="M17" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9181,7 +9181,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,16 +9251,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>99.85242174740807</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9412,16 +9412,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>302.3186727388648</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118428</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9728,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9968,10 +9968,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10132,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10193,7 +10193,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10205,10 +10205,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>239.7567099229146</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10673,10 +10673,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N36" t="n">
-        <v>424.3297954396435</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10907,7 +10907,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>288.3536975034281</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10916,10 +10916,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012167</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11381,22 +11381,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>688.0608343844987</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177.1014360859854</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>186.6850208557515</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>124.8917514574865</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,13 +22792,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>103.4214787759261</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>28.48871240866464</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -22843,13 +22843,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>162.3257468741373</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>27.88224691632985</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23080,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>227.8352342700394</v>
+        <v>350.2048949816059</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23308,25 +23308,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.85708420411822</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23506,10 +23506,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23548,22 +23548,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>32.61781110681289</v>
       </c>
     </row>
     <row r="15">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
@@ -23709,13 +23709,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>264.1830240991021</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>63.17603640613443</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23898,7 +23898,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
@@ -23907,13 +23907,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
-        <v>42.43378612112052</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>115.4534090613801</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>88.51839801714209</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24138,16 +24138,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>26.15046864227571</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>197.4048500855066</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24259,7 +24259,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y23" t="n">
-        <v>308.869307316013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24384,10 +24384,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>45.17521601588872</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>66.96518783965644</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>105.447232174178</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24651,25 +24651,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>43.0952705962448</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>226.7336944841459</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>78.84445267601353</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.27537784542167</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>118.8049094131013</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>348.1015496817096</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25092,7 +25092,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>132.6527210865362</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25128,22 +25128,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>67.74603679440403</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>326.8863003027286</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>76.30116285562218</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25323,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>86.85391474193813</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>226.6665364994998</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>51.43494690098578</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>171.4446545540591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65888910788262</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -25602,16 +25602,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>380.1724106456746</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>210.2597838241921</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25803,7 +25803,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>161.0929155878027</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.0364765063039</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>274.2670132033125</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26076,16 +26076,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>89.72117673905606</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632405.5666395759</v>
+        <v>632405.5666395762</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632405.5666395756</v>
+        <v>632405.5666395762</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632405.5666395759</v>
+        <v>632405.5666395762</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632405.5666395759</v>
+        <v>632405.5666395761</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632405.5666395759</v>
+        <v>632405.5666395758</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632405.5666395759</v>
+        <v>632405.5666395762</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632405.5666395758</v>
+        <v>632405.5666395762</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712446.9794782927</v>
+        <v>712446.9794782929</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712446.9794782926</v>
+        <v>712446.9794782929</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712446.9794782929</v>
+        <v>712446.9794782931</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712446.9794782926</v>
+        <v>712446.9794782927</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712446.9794782929</v>
+        <v>712446.9794782926</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712446.9794782927</v>
+        <v>712446.9794782929</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712446.9794782931</v>
+        <v>712446.9794782926</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712446.9794782927</v>
+        <v>712446.9794782929</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>158101.391659894</v>
       </c>
       <c r="C2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="D2" t="n">
-        <v>158101.3916598941</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="E2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="F2" t="n">
+        <v>158101.3916598939</v>
+      </c>
+      <c r="G2" t="n">
         <v>158101.391659894</v>
-      </c>
-      <c r="G2" t="n">
-        <v>158101.3916598939</v>
       </c>
       <c r="H2" t="n">
         <v>158101.3916598939</v>
@@ -26337,7 +26337,7 @@
         <v>178111.7448695732</v>
       </c>
       <c r="J2" t="n">
-        <v>178111.7448695731</v>
+        <v>178111.7448695732</v>
       </c>
       <c r="K2" t="n">
         <v>178111.7448695732</v>
@@ -26352,7 +26352,7 @@
         <v>178111.7448695732</v>
       </c>
       <c r="O2" t="n">
-        <v>178111.7448695733</v>
+        <v>178111.7448695732</v>
       </c>
       <c r="P2" t="n">
         <v>178111.7448695732</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>461.3207027394316</v>
+      </c>
+      <c r="C4" t="n">
+        <v>461.3207027394316</v>
+      </c>
+      <c r="D4" t="n">
         <v>461.3207027394317</v>
-      </c>
-      <c r="C4" t="n">
-        <v>461.3207027394317</v>
-      </c>
-      <c r="D4" t="n">
-        <v>461.3207027394316</v>
       </c>
       <c r="E4" t="n">
         <v>461.3207027394316</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="G4" t="n">
         <v>461.3207027394316</v>
@@ -26450,7 +26450,7 @@
         <v>548.8206074562066</v>
       </c>
       <c r="M4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="N4" t="n">
         <v>548.8206074562066</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110141.1923117636</v>
+        <v>-110815.2184379836</v>
       </c>
       <c r="C6" t="n">
-        <v>88054.61367998141</v>
+        <v>87380.58755376132</v>
       </c>
       <c r="D6" t="n">
-        <v>88054.61367998147</v>
+        <v>87380.58755376129</v>
       </c>
       <c r="E6" t="n">
-        <v>121682.2136799814</v>
+        <v>121008.1875537614</v>
       </c>
       <c r="F6" t="n">
-        <v>121682.2136799814</v>
+        <v>121008.1875537613</v>
       </c>
       <c r="G6" t="n">
-        <v>121682.2136799813</v>
+        <v>121008.1875537614</v>
       </c>
       <c r="H6" t="n">
-        <v>121682.2136799813</v>
+        <v>121008.1875537613</v>
       </c>
       <c r="I6" t="n">
-        <v>81136.53425907015</v>
+        <v>80605.4392272049</v>
       </c>
       <c r="J6" t="n">
-        <v>-24387.0471586143</v>
+        <v>-24918.14219047941</v>
       </c>
       <c r="K6" t="n">
-        <v>130352.3872069892</v>
+        <v>129821.2921751241</v>
       </c>
       <c r="L6" t="n">
-        <v>130352.3872069893</v>
+        <v>129821.2921751241</v>
       </c>
       <c r="M6" t="n">
-        <v>130352.3872069893</v>
+        <v>129821.292175124</v>
       </c>
       <c r="N6" t="n">
-        <v>130352.3872069892</v>
+        <v>129821.292175124</v>
       </c>
       <c r="O6" t="n">
-        <v>130352.3872069893</v>
+        <v>129821.292175124</v>
       </c>
       <c r="P6" t="n">
-        <v>130352.3872069892</v>
+        <v>129821.292175124</v>
       </c>
     </row>
   </sheetData>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>148.7405620940789</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,16 +34789,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>178.2129853711913</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>263.2887214473282</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>302.9262961593802</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
         <v>591.4121262692951</v>
@@ -35032,7 +35032,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>250.071647109874</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>389.1627148536579</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35424,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515685</v>
       </c>
       <c r="M12" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35652,10 +35652,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>316.9893628657432</v>
+        <v>357.103262415179</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35664,10 +35664,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>260.7596670179006</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35740,10 +35740,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>303.8905267322986</v>
       </c>
       <c r="M17" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35901,7 +35901,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,16 +35971,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>7.465299698096163</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36132,16 +36132,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>152.0172254979396</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576762</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36448,13 +36448,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36688,10 +36688,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36925,10 +36925,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>147.0691510340258</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37089,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N36" t="n">
-        <v>338.9576825854768</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>198.2933506465099</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37636,10 +37636,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>259.4442692519048</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38101,22 +38101,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>595.6737123351868</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
